--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221679.5608371014</v>
+        <v>223117.8776257341</v>
       </c>
     </row>
     <row r="7">
@@ -23516,7 +23516,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
-        <v>76373.61126414366</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="F2" t="n">
         <v>76373.61126414368</v>
@@ -26329,7 +26329,7 @@
         <v>76373.61126414368</v>
       </c>
       <c r="H2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="I2" t="n">
         <v>76373.61126414368</v>
@@ -26341,7 +26341,7 @@
         <v>76373.61126414368</v>
       </c>
       <c r="L2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
       <c r="M2" t="n">
         <v>76373.61126414368</v>
@@ -26353,7 +26353,7 @@
         <v>76373.61126414368</v>
       </c>
       <c r="P2" t="n">
-        <v>76373.61126414369</v>
+        <v>76373.61126414368</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37805.55456035603</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>37805.55456035603</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D4" t="n">
-        <v>37805.55456035603</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="F4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="G4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="H4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="I4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="J4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="K4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="L4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="M4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="N4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="O4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
       <c r="P4" t="n">
-        <v>35895.12583919431</v>
+        <v>35726.15620311847</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822.029311656464</v>
+        <v>3999.991936006256</v>
       </c>
       <c r="C6" t="n">
-        <v>3822.029311656464</v>
+        <v>3999.991936006256</v>
       </c>
       <c r="D6" t="n">
-        <v>3822.029311656464</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="E6" t="n">
-        <v>21487.77299166274</v>
+        <v>21656.7426277386</v>
       </c>
       <c r="F6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="G6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="H6" t="n">
-        <v>39976.79368237737</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="I6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="J6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="K6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="L6" t="n">
-        <v>39976.79368237737</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="M6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="N6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="O6" t="n">
-        <v>39976.79368237736</v>
+        <v>40145.7633184532</v>
       </c>
       <c r="P6" t="n">
-        <v>39976.79368237737</v>
+        <v>40145.7633184532</v>
       </c>
     </row>
   </sheetData>
@@ -31987,19 +31987,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09251611130367558</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887679</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I14" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760344</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L14" t="n">
         <v>14.5997362345548</v>
@@ -32020,10 +32020,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679516</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S14" t="n">
-        <v>2.108210886332509</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T14" t="n">
         <v>0.4049892772318401</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0495004835149808</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H15" t="n">
         <v>0.4780704592104726</v>
@@ -32075,7 +32075,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K15" t="n">
         <v>7.993242550750212</v>
@@ -32093,7 +32093,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277522957</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q15" t="n">
         <v>6.318693299210532</v>
@@ -32166,7 +32166,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O16" t="n">
         <v>5.865771705150827</v>
@@ -32184,7 +32184,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U16" t="n">
         <v>0.002263611411815345</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223117.8776257341</v>
+        <v>229395.183497255</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5739672.253402798</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22630145.75001232</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3938151.932609795</v>
+        <v>3948349.502134414</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>208.3214547517356</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>221.1666787354324</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>214.1012135983212</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>212.9051825663978</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>214.5102874732696</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>217.9290633046618</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>122.1609165114202</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>129.8481964236088</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>127.8064787429921</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>129.5917403577182</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>118.4674613291454</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>130.8188201934042</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>124.5219861368073</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.663080786811</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>128.7148261097669</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>132.4205420186164</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>121.3349826493852</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>132.590766746692</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>132.7088230120157</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,19 +24378,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,19 +24615,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,19 +24852,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,19 +25089,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,19 +25326,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,19 +25563,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,19 +25800,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.2102214038314</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>338.5273214908784</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>206.909162189371</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>144.0576027644702</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>206.9118586999128</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>222.6908602868995</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2940166796957</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>111.757373777286</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.69233988828964</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>97.08446202703757</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>170.7637213332854</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>199.9652070090748</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9494798159088</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>161.8582038473137</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>154.2024705022108</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>90.42516245839145</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.6870224659892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>175.4274210366964</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>223.2933741908973</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.7682732010226</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341220.6012596932</v>
+        <v>342395.8388208781</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>75255.18387201249</v>
       </c>
       <c r="C2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="D2" t="n">
         <v>75255.18387201248</v>
       </c>
       <c r="E2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490453</v>
       </c>
       <c r="F2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="G2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="H2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="I2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="J2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="K2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="L2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="M2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="N2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="O2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
       <c r="P2" t="n">
-        <v>76373.61126414368</v>
+        <v>80024.38370490454</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18489.0206907146</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="F4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="G4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="H4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="I4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="J4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="K4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="L4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="M4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="N4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="O4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
       <c r="P4" t="n">
-        <v>35726.15620311847</v>
+        <v>22298.30400125992</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>501.6917425720072</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>3999.991936006256</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006256</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="D6" t="n">
         <v>3999.991936006241</v>
       </c>
       <c r="E6" t="n">
-        <v>21656.7426277386</v>
+        <v>-78985.53240136376</v>
       </c>
       <c r="F6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="G6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="H6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="I6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="J6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="K6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="L6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="M6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="N6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="O6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
       <c r="P6" t="n">
-        <v>40145.7633184532</v>
+        <v>54114.4675986363</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678932</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9474806248887678</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>3.566727381034957</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>7.852189301760343</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>11.76839629324493</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>14.5997362345548</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>16.24501962895154</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>16.50788103019311</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>15.58792394841718</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>13.30393245060769</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>5.811515176679517</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>2.10821088633251</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4049892772318401</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4780704592104726</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>1.704292963125436</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>4.676710155246498</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>7.993242550750212</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>10.74790103688213</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>12.54229356430018</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>12.87425075418792</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>11.77742425104019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>9.452421277522959</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.318693299210532</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>3.073372125605564</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9194497705523841</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1995216857467866</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3689686601259011</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>1.248004425047526</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>2.93401765828132</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>4.821492307166679</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>6.169850171471354</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>6.505241928988658</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>6.350561815847948</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>5.865771705150827</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>5.019181037131885</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.475020785705187</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>1.865970340473114</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7232238460750018</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1773162272588685</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229395.183497255</v>
+        <v>104742.7933250717</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>6765418.657980112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>21407185.82625513</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3948349.502134414</v>
+        <v>4346726.524076778</v>
       </c>
     </row>
     <row r="11">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>73.73075715809449</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>76.87928562742972</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>73.73075715809446</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
     </row>
     <row r="44">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>115.9135453040441</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>198.785309139777</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>198.785309139777</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>198.785309139777</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>281.6570729755099</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>281.6570729755099</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>250.281013114753</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>165.7266167922013</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>165.7266167922013</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>89.56847202447898</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>172.4402358602119</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>251.9636456015717</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>253.4613449019603</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9069485794086</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>168.9069485794086</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>168.9069485794086</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>168.9069485794086</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>84.35255225685692</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>81.35001001408395</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>244.4760008573224</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>305.8446287478052</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>334.8354094373046</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>260.3598971564011</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>175.8055008338495</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>91.25110451129777</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>6.696708188746093</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.08695199673545</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.35001001408395</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>217.2475376969871</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763364</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071394</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>153.728706457327</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753386</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>129.5750881471878</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268777</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581945</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140408</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>207.0857338616452</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>147.8235892739758</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>226.7264851047547</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>121.2718469541505</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>150.7609240527452</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>100.5004044969134</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>211.0277153542375</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>147.8235892739758</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>188.6058987214216</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>142.4841515224366</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>225.3747630965444</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>168.9651474783121</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H11" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I11" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T11" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S12" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T12" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H13" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I13" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R13" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S13" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H14" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I14" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S14" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I15" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S15" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T15" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H16" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I16" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R16" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S16" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H17" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I17" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S17" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T17" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H18" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S18" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T18" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H19" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I19" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R19" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S19" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H20" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I20" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S20" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T20" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H21" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S21" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T21" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H22" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I22" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R22" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S22" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693002</v>
       </c>
       <c r="H23" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I23" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829426</v>
       </c>
       <c r="S23" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243514</v>
       </c>
       <c r="T23" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2923720137513</v>
+        <v>177.5677010628213</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9871697683942</v>
+        <v>60.14858923994278</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892165</v>
       </c>
       <c r="T24" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015934</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H25" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R25" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S25" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T25" t="n">
-        <v>226.6691135000563</v>
+        <v>153.0841665253886</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3027339191093</v>
+        <v>202.59574296638</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645018</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772648</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G26" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H26" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I26" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S26" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T26" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>254.0215013120404</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S27" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T27" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>132.0422280453829</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H28" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4662571175369</v>
+        <v>137.7651557886641</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>163.8605191622716</v>
+        <v>81.68608630768817</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>281.5640394116813</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H29" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I29" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S29" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T29" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2923720137513</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108086</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S30" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T30" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9179381734211</v>
+        <v>152.1898589823646</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H31" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J31" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S31" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6691135000563</v>
+        <v>153.0841665253885</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>333.1452885836169</v>
       </c>
       <c r="G32" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H32" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I32" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S32" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T32" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7938786076111</v>
+        <v>32.30771854136661</v>
       </c>
       <c r="I33" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T33" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H34" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I34" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J34" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S34" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T34" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>151.9788982309426</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H35" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I35" t="n">
-        <v>184.7994937051469</v>
+        <v>104.0236226172017</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T35" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>254.0215013120404</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H36" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S36" t="n">
-        <v>165.0641745378389</v>
+        <v>92.08949674015324</v>
       </c>
       <c r="T36" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25314,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>83.53796873930158</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>64.9066206588861</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H37" t="n">
-        <v>159.571016214239</v>
+        <v>86.14366833144538</v>
       </c>
       <c r="I37" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G38" t="n">
-        <v>414.6367263390697</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H38" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I38" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>98.97774183022119</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>73.93622809607469</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S39" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T39" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25560,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H40" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R40" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3027339191093</v>
+        <v>212.5738381676116</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H41" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I41" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>312.507181497959</v>
       </c>
     </row>
     <row r="42">
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9871697683942</v>
+        <v>60.14858923994258</v>
       </c>
       <c r="H42" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I42" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T42" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H43" t="n">
-        <v>159.571016214239</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R43" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T43" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>144.8538961940002</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H44" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I44" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>39.08094512952584</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>82.82433129054108</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>88.99964662898948</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H45" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S45" t="n">
-        <v>165.0641745378389</v>
+        <v>92.08949674015324</v>
       </c>
       <c r="T45" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>83.53796873930158</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H46" t="n">
-        <v>159.571016214239</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I46" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8102057935515</v>
+        <v>145.6741680431787</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>342395.8388208781</v>
+        <v>342395.5669097048</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342395.8388208781</v>
+        <v>342395.5669097048</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>342395.8388208781</v>
+        <v>342395.5669097048</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>342395.8388208781</v>
+        <v>342395.5669097048</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.0320576399</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.0320576398</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.0320576397</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.0320576399</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.03205764</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.0320576399</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.03205764</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342395.8388208781</v>
+        <v>417265.03205764</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>75255.18387201247</v>
+      </c>
+      <c r="C2" t="n">
         <v>75255.18387201249</v>
       </c>
-      <c r="C2" t="n">
-        <v>75255.18387201248</v>
-      </c>
       <c r="D2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="E2" t="n">
-        <v>80024.38370490453</v>
+        <v>79574.67120300201</v>
       </c>
       <c r="F2" t="n">
-        <v>80024.38370490454</v>
+        <v>79574.67120300201</v>
       </c>
       <c r="G2" t="n">
-        <v>80024.38370490454</v>
+        <v>79574.67120300201</v>
       </c>
       <c r="H2" t="n">
-        <v>80024.38370490454</v>
+        <v>79574.67120300201</v>
       </c>
       <c r="I2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046535</v>
       </c>
       <c r="J2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046538</v>
       </c>
       <c r="K2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046539</v>
       </c>
       <c r="L2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046538</v>
       </c>
       <c r="M2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046538</v>
       </c>
       <c r="N2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046539</v>
       </c>
       <c r="O2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046536</v>
       </c>
       <c r="P2" t="n">
-        <v>80024.38370490454</v>
+        <v>96174.87996046539</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>117896.1602839667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22259.94172824437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>22298.30400125992</v>
+        <v>24096.88209769649</v>
       </c>
       <c r="F4" t="n">
-        <v>22298.30400125992</v>
+        <v>24096.88209769649</v>
       </c>
       <c r="G4" t="n">
-        <v>22298.30400125992</v>
+        <v>24096.88209769649</v>
       </c>
       <c r="H4" t="n">
-        <v>22298.30400125992</v>
+        <v>24096.88209769649</v>
       </c>
       <c r="I4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393296</v>
       </c>
       <c r="J4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393297</v>
       </c>
       <c r="K4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393297</v>
       </c>
       <c r="L4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393297</v>
       </c>
       <c r="M4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393297</v>
       </c>
       <c r="N4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393297</v>
       </c>
       <c r="O4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393297</v>
       </c>
       <c r="P4" t="n">
-        <v>22298.30400125992</v>
+        <v>32638.10047393297</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="F5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="G5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="H5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="I5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687266</v>
       </c>
       <c r="J5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="K5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="L5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="M5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="N5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="O5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="P5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006256</v>
+        <v>-11150.68203402854</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006241</v>
+        <v>-11150.68203402851</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006241</v>
+        <v>-11150.68203402851</v>
       </c>
       <c r="E6" t="n">
-        <v>-78985.53240136376</v>
+        <v>-80459.57269557982</v>
       </c>
       <c r="F6" t="n">
-        <v>54114.4675986363</v>
+        <v>37436.58758838692</v>
       </c>
       <c r="G6" t="n">
-        <v>54114.4675986363</v>
+        <v>37436.58758838692</v>
       </c>
       <c r="H6" t="n">
-        <v>54114.4675986363</v>
+        <v>37436.58758838692</v>
       </c>
       <c r="I6" t="n">
-        <v>54114.4675986363</v>
+        <v>19331.86721488403</v>
       </c>
       <c r="J6" t="n">
-        <v>54114.4675986363</v>
+        <v>41591.80894312842</v>
       </c>
       <c r="K6" t="n">
-        <v>54114.4675986363</v>
+        <v>41591.80894312845</v>
       </c>
       <c r="L6" t="n">
-        <v>54114.4675986363</v>
+        <v>41591.80894312842</v>
       </c>
       <c r="M6" t="n">
-        <v>54114.4675986363</v>
+        <v>41591.80894312842</v>
       </c>
       <c r="N6" t="n">
-        <v>54114.4675986363</v>
+        <v>41591.80894312845</v>
       </c>
       <c r="O6" t="n">
-        <v>54114.4675986363</v>
+        <v>41591.80894312841</v>
       </c>
       <c r="P6" t="n">
-        <v>54114.4675986363</v>
+        <v>41591.80894312844</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="H3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="I3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="J3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="K3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="L3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="M3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="N3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="P3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H11" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I11" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J11" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K11" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L11" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M11" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O11" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P11" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T11" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I12" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J12" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L12" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M12" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O12" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P12" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R12" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T12" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H13" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I13" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J13" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L13" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N13" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R13" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H14" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I14" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J14" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K14" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L14" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M14" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O14" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P14" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R14" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T14" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I15" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J15" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L15" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M15" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N15" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O15" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P15" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R15" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T15" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H16" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I16" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J16" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L16" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N16" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R16" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H17" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I17" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J17" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K17" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L17" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O17" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P17" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R17" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T17" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I18" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J18" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L18" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M18" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N18" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O18" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P18" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R18" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T18" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H19" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I19" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J19" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L19" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M19" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N19" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R19" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H20" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I20" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J20" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K20" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M20" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O20" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P20" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R20" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T20" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I21" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J21" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L21" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M21" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N21" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O21" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P21" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R21" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T21" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H22" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I22" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J22" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L22" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M22" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R22" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T22" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H23" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I23" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J23" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K23" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M23" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O23" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P23" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R23" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T23" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I24" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J24" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L24" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M24" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N24" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O24" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P24" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R24" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T24" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H25" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I25" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J25" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L25" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M25" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N25" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R25" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H26" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I26" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J26" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K26" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L26" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M26" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N26" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O26" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P26" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R26" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S26" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T26" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H27" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I27" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J27" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K27" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L27" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N27" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O27" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P27" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R27" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S27" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T27" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H28" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I28" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J28" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K28" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L28" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N28" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O28" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R28" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S28" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H29" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I29" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J29" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K29" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L29" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M29" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N29" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O29" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P29" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R29" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S29" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T29" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I30" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J30" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K30" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L30" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M30" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N30" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O30" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P30" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R30" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S30" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T30" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H31" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I31" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J31" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K31" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L31" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N31" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O31" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R31" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S31" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H32" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I32" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J32" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K32" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M32" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N32" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O32" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P32" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R32" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S32" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T32" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H33" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I33" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J33" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K33" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L33" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M33" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N33" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O33" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P33" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R33" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S33" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T33" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H34" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I34" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J34" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K34" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L34" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M34" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N34" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O34" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R34" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S34" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H35" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I35" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J35" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K35" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L35" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N35" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O35" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P35" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R35" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S35" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T35" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H36" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I36" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J36" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K36" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L36" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M36" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N36" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O36" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P36" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R36" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S36" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T36" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H37" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I37" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J37" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L37" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M37" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N37" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O37" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P37" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R37" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S37" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H38" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I38" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J38" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K38" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L38" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M38" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N38" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O38" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P38" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R38" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S38" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T38" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H39" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I39" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J39" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K39" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L39" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M39" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N39" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O39" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P39" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R39" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S39" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T39" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H40" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I40" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J40" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L40" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M40" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N40" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O40" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P40" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R40" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S40" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T40" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H41" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I41" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J41" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K41" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L41" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N41" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O41" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P41" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R41" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S41" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T41" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H42" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I42" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J42" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K42" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L42" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M42" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N42" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O42" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P42" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R42" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S42" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T42" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I43" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J43" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K43" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N43" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O43" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P43" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R43" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S43" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T43" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H44" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I44" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J44" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K44" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L44" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N44" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O44" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P44" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R44" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S44" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T44" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H45" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I45" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J45" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K45" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L45" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M45" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N45" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O45" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P45" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R45" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S45" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T45" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H46" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I46" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J46" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L46" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N46" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O46" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P46" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R46" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S46" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>72.19945110686686</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36372,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>80.32667650642408</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>83.70885235932616</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>29.28361685808019</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36840,16 +36840,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>51.25199285614971</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>66.93238183570557</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>66.93238183570557</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>42.20609012309106</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
